--- a/tests/test_data/test_objective_cost_functions_mse.xlsx
+++ b/tests/test_data/test_objective_cost_functions_mse.xlsx
@@ -29,6 +29,9 @@
     <definedName name="error_2">error!$B:$B</definedName>
     <definedName name="m">params!$B$3</definedName>
     <definedName name="ratio">params!$B$2</definedName>
+    <definedName name="sign_weights">theta!$E$2:$E$6</definedName>
+    <definedName name="weights">theta!$C$2:$C$6</definedName>
+    <definedName name="weights_2">theta!$D$2:$D$6</definedName>
     <definedName name="y">y!$B:$B</definedName>
     <definedName name="y_pred">y_pred!$B:$B</definedName>
   </definedNames>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>y</t>
   </si>
@@ -84,31 +87,22 @@
     <t>gradient_l1_l2</t>
   </si>
   <si>
-    <t>l1_cont</t>
-  </si>
-  <si>
-    <t>l2_cont</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
     <t>weights^2</t>
   </si>
   <si>
-    <t>sign</t>
-  </si>
-  <si>
     <t>cost</t>
-  </si>
-  <si>
-    <t>total_cost</t>
   </si>
   <si>
     <t>l1_contr</t>
   </si>
   <si>
     <t>l2_contr</t>
+  </si>
+  <si>
+    <t>sign(weights)</t>
   </si>
 </sst>
 </file>
@@ -5681,7 +5675,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,10 +5688,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5805,17 +5799,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -5826,64 +5820,36 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
       <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>F2/(2*m)</f>
+        <f>0.5 * AVERAGE(error_2)</f>
         <v>0.51541096633546357</v>
       </c>
       <c r="B2">
-        <f>G2/(2*m)</f>
-        <v>0.51640267705626086</v>
+        <f>A2+alpha*SUM(weights)</f>
+        <v>0.71375311049493173</v>
       </c>
       <c r="C2">
-        <f>H2/(2*m)</f>
-        <v>0.51608561311070467</v>
+        <f>A2+alpha*SUM(weights_2)</f>
+        <v>0.65034032138368802</v>
       </c>
       <c r="D2">
-        <f>I2/(2*m)</f>
-        <v>0.51624414508348271</v>
+        <f>A2+alpha*(E2+F2)</f>
+        <v>0.68204671593930988</v>
+      </c>
+      <c r="E2">
+        <f>ratio*SUM(weights)</f>
+        <v>0.99171072079734102</v>
       </c>
       <c r="F2">
-        <f>SUM(error_2)</f>
-        <v>103.08219326709271</v>
-      </c>
-      <c r="G2">
-        <f>F2+alpha*SUM(theta!C2:C6)</f>
-        <v>103.28053541125217</v>
-      </c>
-      <c r="H2">
-        <f>F2+alpha*SUM(theta!D2:D6)</f>
-        <v>103.21712262214093</v>
-      </c>
-      <c r="I2">
-        <f>F2+alpha*(J2+K2)</f>
-        <v>103.24882901669655</v>
-      </c>
-      <c r="J2">
-        <f>ratio*SUM(theta!C2:C6)</f>
-        <v>0.99171072079734102</v>
-      </c>
-      <c r="K2">
-        <f>(1-ratio)*SUM(theta!D2:D6)</f>
+        <f>(1-ratio)*SUM(weights_2)</f>
         <v>0.67464677524112227</v>
       </c>
     </row>
@@ -5920,7 +5886,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -6959,10 +6925,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6973,7 +6939,7 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6986,227 +6952,135 @@
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>G2/m</f>
+        <f t="array" ref="A2:A6">1/m*MMULT(data,error)</f>
         <v>-7.8228646801667412E-2</v>
       </c>
       <c r="B2">
-        <f>H2/m</f>
+        <f>A2+alpha*sign_weights</f>
         <v>-7.8228646801667412E-2</v>
       </c>
       <c r="C2">
-        <f>I2/m</f>
+        <f>A2+alpha*weights</f>
         <v>-7.8228646801667412E-2</v>
       </c>
       <c r="D2">
-        <f>J2/m</f>
+        <f>A2+alpha*(E2+F2)</f>
         <v>-7.8228646801667412E-2</v>
       </c>
-      <c r="G2">
-        <f t="array" ref="G2:G6">MMULT(data,error)</f>
-        <v>-7.8228646801667416</v>
-      </c>
-      <c r="H2">
-        <f>G2+alpha*SIGN(theta!C2)</f>
-        <v>-7.8228646801667416</v>
-      </c>
-      <c r="I2">
-        <f>G2+alpha*theta!C2</f>
-        <v>-7.8228646801667416</v>
-      </c>
-      <c r="J2">
-        <f>G2+alpha*(K2+L2)</f>
-        <v>-7.8228646801667416</v>
-      </c>
-      <c r="K2">
+      <c r="E2">
         <f>ratio*theta!E2</f>
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="F2">
         <f>(1-ratio)*theta!C2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>G3/m</f>
         <v>1.7356876996219062E-2</v>
       </c>
       <c r="B3">
-        <f>H3/m</f>
-        <v>1.8356876996219063E-2</v>
+        <f>A3+alpha*sign_weights</f>
+        <v>0.11735687699621906</v>
       </c>
       <c r="C3">
-        <f>I3/m</f>
-        <v>1.7669012362767494E-2</v>
+        <f>A3+alpha*weights</f>
+        <v>4.8570413651062266E-2</v>
       </c>
       <c r="D3">
-        <f>J3/m</f>
-        <v>1.8012944679493277E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.7356876996219062</v>
-      </c>
-      <c r="H3">
-        <f>G3+alpha*SIGN(theta!C3)</f>
-        <v>1.8356876996219063</v>
-      </c>
-      <c r="I3">
-        <f>G3+alpha*theta!C3</f>
-        <v>1.7669012362767493</v>
-      </c>
-      <c r="J3">
-        <f>G3+alpha*(K3+L3)</f>
-        <v>1.8012944679493277</v>
-      </c>
-      <c r="K3">
+        <f>A3+alpha*(E3+F3)</f>
+        <v>8.2963645323640672E-2</v>
+      </c>
+      <c r="E3">
         <f>ratio*theta!E3</f>
         <v>0.5</v>
       </c>
-      <c r="L3">
+      <c r="F3">
         <f>(1-ratio)*theta!C3</f>
         <v>0.156067683274216</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>G4/m</f>
-        <v>1.637294783094591E-3</v>
+        <v>1.6372947830945912E-3</v>
       </c>
       <c r="B4">
-        <f>H4/m</f>
-        <v>2.6372947830945914E-3</v>
+        <f>A4+alpha*sign_weights</f>
+        <v>0.10163729478309459</v>
       </c>
       <c r="C4">
-        <f>I4/m</f>
-        <v>2.6162472080320178E-3</v>
+        <f>A4+alpha*weights</f>
+        <v>9.9532537276837238E-2</v>
       </c>
       <c r="D4">
-        <f>J4/m</f>
-        <v>2.6267709955633046E-3</v>
-      </c>
-      <c r="G4">
-        <v>0.16372947830945911</v>
-      </c>
-      <c r="H4">
-        <f>G4+alpha*SIGN(theta!C4)</f>
-        <v>0.26372947830945914</v>
-      </c>
-      <c r="I4">
-        <f>G4+alpha*theta!C4</f>
-        <v>0.26162472080320176</v>
-      </c>
-      <c r="J4">
-        <f>G4+alpha*(K4+L4)</f>
-        <v>0.26267709955633045</v>
-      </c>
-      <c r="K4">
+        <f>A4+alpha*(E4+F4)</f>
+        <v>0.10058491602996592</v>
+      </c>
+      <c r="E4">
         <f>ratio*theta!E4</f>
         <v>0.5</v>
       </c>
-      <c r="L4">
+      <c r="F4">
         <f>(1-ratio)*theta!C4</f>
         <v>0.4894762124687132</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>G5/m</f>
         <v>-1.0402562867222607E-2</v>
       </c>
       <c r="B5">
-        <f>H5/m</f>
-        <v>-9.4025628672226077E-3</v>
+        <f>A5+alpha*sign_weights</f>
+        <v>8.9597437132777402E-2</v>
       </c>
       <c r="C5">
-        <f>I5/m</f>
-        <v>-1.0220490940938007E-2</v>
+        <f>A5+alpha*weights</f>
+        <v>7.8046297612374242E-3</v>
       </c>
       <c r="D5">
-        <f>J5/m</f>
-        <v>-9.8115269040803064E-3</v>
-      </c>
-      <c r="G5">
-        <v>-1.0402562867222607</v>
-      </c>
-      <c r="H5">
-        <f>G5+alpha*SIGN(theta!C5)</f>
-        <v>-0.94025628672226069</v>
-      </c>
-      <c r="I5">
-        <f>G5+alpha*theta!C5</f>
-        <v>-1.0220490940938007</v>
-      </c>
-      <c r="J5">
-        <f>G5+alpha*(K5+L5)</f>
-        <v>-0.98115269040803066</v>
-      </c>
-      <c r="K5">
+        <f>A5+alpha*(E5+F5)</f>
+        <v>4.8701033447007408E-2</v>
+      </c>
+      <c r="E5">
         <f>ratio*theta!E5</f>
         <v>0.5</v>
       </c>
-      <c r="L5">
+      <c r="F5">
         <f>(1-ratio)*theta!C5</f>
         <v>9.1035963142300155E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>G6/m</f>
         <v>0.24898682025315808</v>
       </c>
       <c r="B6">
-        <f>H6/m</f>
-        <v>0.24998682025315808</v>
+        <f>A6+alpha*sign_weights</f>
+        <v>0.34898682025315808</v>
       </c>
       <c r="C6">
-        <f>I6/m</f>
-        <v>0.24949708197698228</v>
+        <f>A6+alpha*weights</f>
+        <v>0.30001299263558046</v>
       </c>
       <c r="D6">
-        <f>J6/m</f>
-        <v>0.24974195111507019</v>
-      </c>
-      <c r="G6">
-        <v>24.898682025315807</v>
-      </c>
-      <c r="H6">
-        <f>G6+alpha*SIGN(theta!C6)</f>
-        <v>24.998682025315809</v>
-      </c>
-      <c r="I6">
-        <f>G6+alpha*theta!C6</f>
-        <v>24.949708197698229</v>
-      </c>
-      <c r="J6">
-        <f>G6+alpha*(K6+L6)</f>
-        <v>24.974195111507019</v>
-      </c>
-      <c r="K6">
+        <f>A6+alpha*(E6+F6)</f>
+        <v>0.32449990644436927</v>
+      </c>
+      <c r="E6">
         <f>ratio*theta!E6</f>
         <v>0.5</v>
       </c>
-      <c r="L6">
+      <c r="F6">
         <f>(1-ratio)*theta!C6</f>
         <v>0.25513086191211182</v>
       </c>
